--- a/biology/Médecine/Jean-Joseph_Menuret/Jean-Joseph_Menuret.xlsx
+++ b/biology/Médecine/Jean-Joseph_Menuret/Jean-Joseph_Menuret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Joseph[1] Menuret, dit Menuret de Chambaud[2], né le 23 janvier 1739 à Montélimar et mort à Paris le 15 décembre 1815, est un médecin et encyclopédiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Joseph Menuret, dit Menuret de Chambaud, né le 23 janvier 1739 à Montélimar et mort à Paris le 15 décembre 1815, est un médecin et encyclopédiste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Menuret fait ses études de médecine à Montpellier sous Antoine Fizes. Revenu faire de la clientèle à Montélimar après avoir été admis au doctorat, il publie ses premiers ouvrages, ainsi que près de 80 articles dans l'Encyclopédie de Diderot.
 Il s'installe ensuite à Paris, où il devient d’abord médecin des écuries du roi, puis médecin de la comtesse d’Artois.
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouveau traité du pouls, Amsterdam (Paris), 1767, in-12
 Avis aux mères sur la petite vérole et la rougeole, ou Lettres à madame de *** sur la manière de traiter et de gouverner ses enfants dans ces maladies ; suivies d’une question proposée à Messieurs de la Société royale des sciences de Montpellier, relativement à l’inoculation, Lyon, 1770, in-8°
@@ -583,7 +599,9 @@
           <t>Articles dans l’Encyclopédie (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Articles Inflammation, Maladies inflammatoires, t. 8, p. 708-27 ;
 Article Mort (médecine) , t. 10, p. 718-27 ;
